--- a/exp/stim/stim_g1_e1.xlsx
+++ b/exp/stim/stim_g1_e1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/stim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36130C-4129-B04A-9A0D-88672A09D1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC53EB-10D4-494A-BA88-7EC5DD87AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="g1_exp1" sheetId="17" r:id="rId1"/>
@@ -605,12 +605,6 @@
     <t>correct_key</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>image_dir</t>
   </si>
   <si>
@@ -996,6 +990,12 @@
   </si>
   <si>
     <t>sent_code</t>
+  </si>
+  <si>
+    <t>rshift</t>
+  </si>
+  <si>
+    <t>lshift</t>
   </si>
 </sst>
 </file>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED6CCA2-4DFB-EA4E-8498-732231F484CB}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1622,22 +1622,22 @@
         <v>122</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>120</v>
@@ -1646,10 +1646,10 @@
         <v>121</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>185</v>
@@ -1664,10 +1664,10 @@
         <v>188</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.2">
@@ -1705,22 +1705,22 @@
         <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R2" s="1"/>
     </row>
@@ -1759,19 +1759,19 @@
         <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1811,19 +1811,19 @@
         <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1863,19 +1863,19 @@
         <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1915,19 +1915,19 @@
         <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1967,19 +1967,19 @@
         <v>56</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2019,19 +2019,19 @@
         <v>5</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2071,19 +2071,19 @@
         <v>12</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2123,19 +2123,19 @@
         <v>18</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2175,19 +2175,19 @@
         <v>22</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2227,19 +2227,19 @@
         <v>20</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2279,19 +2279,19 @@
         <v>16</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -2331,19 +2331,19 @@
         <v>127</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>127</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -2383,19 +2383,19 @@
         <v>55</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2435,19 +2435,19 @@
         <v>16</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2487,19 +2487,19 @@
         <v>51</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2539,19 +2539,19 @@
         <v>25</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2591,19 +2591,19 @@
         <v>124</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2643,19 +2643,19 @@
         <v>26</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2695,19 +2695,19 @@
         <v>28</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2747,19 +2747,19 @@
         <v>50</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2799,19 +2799,19 @@
         <v>126</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>125</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2851,19 +2851,19 @@
         <v>51</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2903,19 +2903,19 @@
         <v>59</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2955,19 +2955,19 @@
         <v>53</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -3007,19 +3007,19 @@
         <v>5</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -3059,19 +3059,19 @@
         <v>22</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -3111,19 +3111,19 @@
         <v>11</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3163,19 +3163,19 @@
         <v>14</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3215,19 +3215,19 @@
         <v>58</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -3267,19 +3267,19 @@
         <v>39</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -3319,19 +3319,19 @@
         <v>3</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -3371,19 +3371,19 @@
         <v>12</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -3423,19 +3423,19 @@
         <v>48</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -3475,19 +3475,19 @@
         <v>42</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -3527,19 +3527,19 @@
         <v>22</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -3579,19 +3579,19 @@
         <v>12</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3631,19 +3631,19 @@
         <v>31</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -3683,19 +3683,19 @@
         <v>42</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -3735,19 +3735,19 @@
         <v>37</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -3787,19 +3787,19 @@
         <v>15</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -3839,19 +3839,19 @@
         <v>4</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3891,19 +3891,19 @@
         <v>46</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -3943,19 +3943,19 @@
         <v>3</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -3995,19 +3995,19 @@
         <v>43</v>
       </c>
       <c r="L46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -4047,19 +4047,19 @@
         <v>8</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -4099,19 +4099,19 @@
         <v>9</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4151,19 +4151,19 @@
         <v>12</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4203,19 +4203,19 @@
         <v>32</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -4255,19 +4255,19 @@
         <v>8</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -4307,19 +4307,19 @@
         <v>34</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -4359,19 +4359,19 @@
         <v>18</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -4411,19 +4411,19 @@
         <v>18</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -4463,19 +4463,19 @@
         <v>36</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>129</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -4515,19 +4515,19 @@
         <v>39</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>39</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>

--- a/exp/stim/stim_g1_e1.xlsx
+++ b/exp/stim/stim_g1_e1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/stim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC53EB-10D4-494A-BA88-7EC5DD87AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3DF9DD-2E9F-4C4D-BF0A-340488464D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="21180" windowHeight="18380" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="g1_exp1" sheetId="17" r:id="rId1"/>
@@ -1596,7 +1596,8 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3120,7 +3121,7 @@
         <v>12</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>284</v>
@@ -3172,7 +3173,7 @@
         <v>14</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>285</v>
@@ -3224,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>286</v>
@@ -3276,7 +3277,7 @@
         <v>39</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>287</v>
@@ -3328,7 +3329,7 @@
         <v>38</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>288</v>
@@ -3380,7 +3381,7 @@
         <v>12</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>289</v>
@@ -3432,7 +3433,7 @@
         <v>30</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>290</v>
@@ -3484,7 +3485,7 @@
         <v>42</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>291</v>
@@ -3536,7 +3537,7 @@
         <v>38</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>292</v>
@@ -3588,7 +3589,7 @@
         <v>12</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>293</v>
@@ -3640,7 +3641,7 @@
         <v>30</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>294</v>
@@ -3692,7 +3693,7 @@
         <v>42</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>295</v>
@@ -3744,7 +3745,7 @@
         <v>5</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>296</v>
@@ -3796,7 +3797,7 @@
         <v>15</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>297</v>
@@ -3848,7 +3849,7 @@
         <v>44</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>298</v>
@@ -3900,7 +3901,7 @@
         <v>46</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>299</v>
@@ -3952,7 +3953,7 @@
         <v>47</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>300</v>
@@ -4004,7 +4005,7 @@
         <v>43</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>301</v>
@@ -4056,7 +4057,7 @@
         <v>4</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>302</v>
@@ -4108,7 +4109,7 @@
         <v>9</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>303</v>
@@ -4160,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>304</v>
@@ -4212,7 +4213,7 @@
         <v>32</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>305</v>
@@ -4264,7 +4265,7 @@
         <v>29</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>306</v>
@@ -4316,7 +4317,7 @@
         <v>34</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>307</v>
@@ -4368,7 +4369,7 @@
         <v>37</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>308</v>
@@ -4420,7 +4421,7 @@
         <v>18</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>309</v>
@@ -4472,7 +4473,7 @@
         <v>129</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>310</v>
